--- a/decks/N4_학습하기/N4_동사/N4_동사_파트1_202_last.xlsx
+++ b/decks/N4_학습하기/N4_동사/N4_동사_파트1_202_last.xlsx
@@ -196,7 +196,7 @@
     <t>① 듣다 ② 여쭙다 ③ 찾아뵙다(聞く(きく), 問う(とう), 尋ねる(たずねる)의 겸손)</t>
   </si>
   <si>
-    <t>話(はなし)をうかがう。 (이야기를 듣다.) ちょっとお聞(き)きしたいことがありますが。 (잠시 묻고 싶은 것이 있습니다만.) 明日(あした)またうかがいます。 (내일 또 찾아뵙겠습니다.)</t>
+    <t>話(はなし)をうかがう。 (이야기를 듣다.) ちょっとうかがいたいことがありますが。 (잠시 묻고 싶은 것이 있습니다만.) 明日(あした)またうかがいます。 (내일 또 찾아뵙겠습니다.)</t>
   </si>
   <si>
     <t>受ける</t>
@@ -3737,8 +3737,8 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.5234" style="1" customWidth="1"/>
-    <col min="5" max="5" width="120.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="120.352" style="1" customWidth="1"/>
     <col min="6" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
